--- a/통계이론 및 실습/실습자료0423/200423_실습자료.xlsx
+++ b/통계이론 및 실습/실습자료0423/200423_실습자료.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\실습자료0423\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\kis\통계이론 및 실습\실습자료0423\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="범주형자료분석" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="상관분석과 회귀분석" sheetId="5" r:id="rId5"/>
     <sheet name="다중회귀분석" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>감소</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -773,9 +773,114 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">키가 비슷한 남자 집단에서 심장 수축혈압 몸무게(파운드)와 나이에 관련하여 13명의 표본으로부터 다음과 
-같은 자료를 얻었다. </t>
+    <t>blood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대도수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡연 감소의 기대빈도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검정통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;검정통계량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유의확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분산 분석: 일원 배치법</t>
+  </si>
+  <si>
+    <t>요약표</t>
+  </si>
+  <si>
+    <t>인자의 수준</t>
+  </si>
+  <si>
+    <t>관측수</t>
+  </si>
+  <si>
+    <t>합</t>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>분산</t>
+  </si>
+  <si>
+    <t>분산 분석</t>
+  </si>
+  <si>
+    <t>변동의 요인</t>
+  </si>
+  <si>
+    <t>제곱합</t>
+  </si>
+  <si>
+    <t>자유도</t>
+  </si>
+  <si>
+    <t>제곱 평균</t>
+  </si>
+  <si>
+    <t>F 비</t>
+  </si>
+  <si>
+    <t>P-값</t>
+  </si>
+  <si>
+    <t>F 기각치</t>
+  </si>
+  <si>
+    <t>처리</t>
+  </si>
+  <si>
+    <t>잔차</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
+    <t>유의확률(P값)이 유의수준 0.05보다 작으므로 귀무가설을 기각한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서 반응온도별로 제품의 강도에는 차이가 있다. 적어도 하나의 차이가 있다. 라는 의미라는것을 명심해야한다..</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품강도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">키가 비슷한 남자 집단에서 심장 수축혈압과 몸무게(파운드)와 나이에 관련하여 13명의 표본으로부터 다음과 같은 자료를 얻었다. </t>
     </r>
     <r>
       <rPr>
@@ -866,21 +971,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>blood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연속형변수(몸무게, 나이, 혈압)간의 관계 분석이므로 회귀분석
 독립변수가 2개이므로 다중회귀분석
-귀무가설 : 몸무게와 나이는 심장의 수축혈압에 영향을 주지 않는다.</t>
+귀무가설 : 몸무게와 나이는 심장의 수축혈압에 영향을 주지 않는다.
+몸무게도 나이도 심장의 수축혈압에 영향을 주지 않는다. 2개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1326,7 +1420,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1494,6 +1588,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1511,6 +1623,881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>일원배치법!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>제품강도</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>일원배치법!$J$16:$J$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A1(120°C)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A2(140°C)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>A3(160°C)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>A4(180°C)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>일원배치법!$K$16:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9800000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="553098952"/>
+        <c:axId val="553096208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="553098952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553096208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553096208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553098952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1810,13 +2797,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
@@ -1869,6 +2860,9 @@
       <c r="D5" s="12" t="s">
         <v>2</v>
       </c>
+      <c r="E5" s="56" t="s">
+        <v>39</v>
+      </c>
       <c r="H5" s="28" t="s">
         <v>6</v>
       </c>
@@ -1893,6 +2887,10 @@
       </c>
       <c r="D6" s="8">
         <v>38</v>
+      </c>
+      <c r="E6">
+        <f>SUM(B6:D6)</f>
+        <v>87</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="32"/>
@@ -1917,6 +2915,10 @@
       <c r="D7" s="10">
         <v>23</v>
       </c>
+      <c r="E7">
+        <f>SUM(B7:D7)</f>
+        <v>113</v>
+      </c>
       <c r="H7" s="31"/>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -1928,6 +2930,25 @@
       <c r="P7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B6:B7)</f>
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="0">SUM(C6:C7)</f>
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E6:E7)</f>
+        <v>200</v>
+      </c>
       <c r="H8" s="31"/>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -1949,7 +2970,10 @@
       <c r="O9" s="32"/>
       <c r="P9" s="33"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="34"/>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -1960,6 +2984,157 @@
       <c r="O10" s="35"/>
       <c r="P10" s="36"/>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <f>(B$8*$E6)/$E$8</f>
+        <v>20.010000000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ref="C12:D12" si="1">(C$8*$E6)/$E$8</f>
+        <v>40.454999999999998</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>26.535</v>
+      </c>
+      <c r="G12">
+        <f>87*46/200</f>
+        <v>20.010000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="6">
+        <f>(B$8*$E7)/$E$8</f>
+        <v>25.99</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ref="C13:D13" si="2">(C$8*$E7)/$E$8</f>
+        <v>52.545000000000002</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="2"/>
+        <v>34.465000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <f t="shared" ref="B18:D19" si="3">(B6-B12)^2/B12</f>
+        <v>0.45277861069465308</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7670751452230868</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="3"/>
+        <v>4.9536922931976637</v>
+      </c>
+      <c r="E18">
+        <f>SUM(B18:D18)</f>
+        <v>7.1735460491154033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.34859946133128161</v>
+      </c>
+      <c r="C19" s="9">
+        <f t="shared" si="3"/>
+        <v>1.360491483490341</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="3"/>
+        <v>3.8139046859132475</v>
+      </c>
+      <c r="E19">
+        <f>SUM(B19:D19)</f>
+        <v>5.5229956307348704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B18:B19)</f>
+        <v>0.8013780720259347</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20" si="4">SUM(C18:C19)</f>
+        <v>3.1275666287134278</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20" si="5">SUM(D18:D19)</f>
+        <v>8.7675969791109107</v>
+      </c>
+      <c r="E20" s="57">
+        <f>SUM(E18:E19)</f>
+        <v>12.696541679850274</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>_xlfn.CHISQ.TEST(B6:D7,B12:D13)</f>
+        <v>1.7497701545580615E-3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:N2"/>
@@ -1967,21 +3142,22 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2189,6 +3365,230 @@
       <c r="O10" s="44"/>
       <c r="P10" s="45"/>
     </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="58">
+        <v>7.7200000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="58">
+        <v>5</v>
+      </c>
+      <c r="D17" s="58">
+        <v>38.6</v>
+      </c>
+      <c r="E17" s="58">
+        <v>7.7200000000000006</v>
+      </c>
+      <c r="F17" s="58">
+        <v>3.2000000000000084E-2</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="58">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="58">
+        <v>5</v>
+      </c>
+      <c r="D18" s="58">
+        <v>41.2</v>
+      </c>
+      <c r="E18" s="58">
+        <v>8.24</v>
+      </c>
+      <c r="F18" s="58">
+        <v>6.3000000000000014E-2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="58">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="58">
+        <v>5</v>
+      </c>
+      <c r="D19" s="58">
+        <v>42.5</v>
+      </c>
+      <c r="E19" s="58">
+        <v>8.5</v>
+      </c>
+      <c r="F19" s="58">
+        <v>5.4999999999999966E-2</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="59">
+        <v>7.9800000000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="59">
+        <v>5</v>
+      </c>
+      <c r="D20" s="59">
+        <v>39.900000000000006</v>
+      </c>
+      <c r="E20" s="59">
+        <v>7.9800000000000013</v>
+      </c>
+      <c r="F20" s="59">
+        <v>4.7000000000000111E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="58">
+        <v>1.6900000000000022</v>
+      </c>
+      <c r="D25" s="58">
+        <v>3</v>
+      </c>
+      <c r="E25" s="58">
+        <v>0.56333333333333402</v>
+      </c>
+      <c r="F25" s="58">
+        <v>11.438240270727585</v>
+      </c>
+      <c r="G25" s="61">
+        <v>2.9560067226442395E-4</v>
+      </c>
+      <c r="H25" s="58">
+        <v>3.2388715174535854</v>
+      </c>
+      <c r="J25" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="58">
+        <v>0.7880000000000007</v>
+      </c>
+      <c r="D26" s="58">
+        <v>16</v>
+      </c>
+      <c r="E26" s="58">
+        <v>4.9250000000000044E-2</v>
+      </c>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+    </row>
+    <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="59">
+        <v>2.4780000000000029</v>
+      </c>
+      <c r="D28" s="59">
+        <v>19</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:Q3"/>
@@ -2196,6 +3596,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3051,15 +4452,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="48" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -3098,16 +4499,16 @@
     <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="28" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
